--- a/Documents/Agile Documents/Burndown Charts/Template.xlsx
+++ b/Documents/Agile Documents/Burndown Charts/Template.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\#  Solent Uni Work (2017 - Present Day)\4. Year 2 - 2nd Semester\Software Engineering for Games. Methods and Tools\AE2\SWEG-MT-Project-PT2\Documents\Agile Documents\Burndown Charts\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BC8DE210-D15D-44D0-960D-ACDC773A9FFB}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AF53AF67-50D5-4276-8396-889B2B653EF3}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="24000" windowHeight="10110" xr2:uid="{F9C6FB3B-61EE-444D-871F-90317262C968}"/>
   </bookViews>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="10">
   <si>
     <t>Task</t>
   </si>
@@ -51,12 +51,6 @@
   </si>
   <si>
     <t>Day 5</t>
-  </si>
-  <si>
-    <t>Day 6</t>
-  </si>
-  <si>
-    <t>Day 7</t>
   </si>
   <si>
     <t>Actual Burndown</t>
@@ -330,10 +324,10 @@
           </c:marker>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$C$4:$J$4</c:f>
+              <c:f>Sheet1!$C$4:$H$4</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="8"/>
+                <c:ptCount val="6"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -350,12 +344,6 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="7">
                   <c:v>0</c:v>
                 </c:pt>
               </c:numCache>
@@ -400,10 +388,10 @@
           </c:marker>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$C$3:$J$3</c:f>
+              <c:f>Sheet1!$C$3:$H$3</c:f>
               <c:numCache>
                 <c:formatCode>0</c:formatCode>
-                <c:ptCount val="8"/>
+                <c:ptCount val="6"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -420,12 +408,6 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="7">
                   <c:v>0</c:v>
                 </c:pt>
               </c:numCache>
@@ -1493,7 +1475,7 @@
   <dimension ref="A2:J38"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A9" sqref="A7:A9"/>
+      <selection activeCell="H5" sqref="H5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1504,7 +1486,7 @@
   <sheetData>
     <row r="2" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B2" s="4" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="C2" s="1">
         <v>0</v>
@@ -1524,16 +1506,12 @@
       <c r="H2" s="1">
         <v>5</v>
       </c>
-      <c r="I2" s="1">
-        <v>6</v>
-      </c>
-      <c r="J2" s="1">
-        <v>7</v>
-      </c>
+      <c r="I2" s="1"/>
+      <c r="J2" s="1"/>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B3" s="5" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="C3" s="2">
         <f>SUM(B7:B38)</f>
@@ -1559,51 +1537,39 @@
         <f>$C3-SUM(C7:G38)</f>
         <v>0</v>
       </c>
-      <c r="I3" s="2">
-        <f>$C3-SUM(C7:H38)</f>
-        <v>0</v>
-      </c>
-      <c r="J3" s="2">
-        <f>$C3-SUM(C7:I38)</f>
-        <v>0</v>
-      </c>
+      <c r="I3" s="2"/>
+      <c r="J3" s="2"/>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B4" s="6" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="C4" s="9">
         <f>C3</f>
         <v>0</v>
       </c>
       <c r="D4" s="9">
-        <f>C4-$C4/7</f>
+        <f>C4-$C4/5</f>
         <v>0</v>
       </c>
       <c r="E4" s="9">
-        <f>D4-$C4/7</f>
+        <f>D4-$C4/5</f>
         <v>0</v>
       </c>
       <c r="F4" s="9">
-        <f t="shared" ref="F4:J4" si="0">E4-$C4/7</f>
+        <f>E4-$C4/5</f>
         <v>0</v>
       </c>
       <c r="G4" s="9">
-        <f t="shared" si="0"/>
+        <f>F4-$C4/5</f>
         <v>0</v>
       </c>
       <c r="H4" s="9">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="I4" s="9">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="J4" s="9">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
+        <f>G4-$C4/5</f>
+        <v>0</v>
+      </c>
+      <c r="I4" s="9"/>
+      <c r="J4" s="9"/>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A6" s="3" t="s">
@@ -1627,12 +1593,8 @@
       <c r="G6" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="H6" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="I6" s="3" t="s">
-        <v>8</v>
-      </c>
+      <c r="H6" s="3"/>
+      <c r="I6" s="3"/>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A7" s="7"/>
@@ -1654,12 +1616,8 @@
       <c r="G7" s="8">
         <v>0</v>
       </c>
-      <c r="H7" s="8">
-        <v>0</v>
-      </c>
-      <c r="I7" s="8">
-        <v>0</v>
-      </c>
+      <c r="H7" s="8"/>
+      <c r="I7" s="8"/>
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A8" s="7"/>
@@ -1681,12 +1639,8 @@
       <c r="G8" s="8">
         <v>0</v>
       </c>
-      <c r="H8" s="8">
-        <v>0</v>
-      </c>
-      <c r="I8" s="8">
-        <v>0</v>
-      </c>
+      <c r="H8" s="8"/>
+      <c r="I8" s="8"/>
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A9" s="7"/>
@@ -1708,12 +1662,8 @@
       <c r="G9" s="8">
         <v>0</v>
       </c>
-      <c r="H9" s="8">
-        <v>0</v>
-      </c>
-      <c r="I9" s="8">
-        <v>0</v>
-      </c>
+      <c r="H9" s="8"/>
+      <c r="I9" s="8"/>
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A10" s="7"/>
@@ -1735,12 +1685,8 @@
       <c r="G10" s="8">
         <v>0</v>
       </c>
-      <c r="H10" s="8">
-        <v>0</v>
-      </c>
-      <c r="I10" s="8">
-        <v>0</v>
-      </c>
+      <c r="H10" s="8"/>
+      <c r="I10" s="8"/>
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A11" s="7"/>
@@ -1762,12 +1708,8 @@
       <c r="G11" s="8">
         <v>0</v>
       </c>
-      <c r="H11" s="8">
-        <v>0</v>
-      </c>
-      <c r="I11" s="8">
-        <v>0</v>
-      </c>
+      <c r="H11" s="8"/>
+      <c r="I11" s="8"/>
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A12" s="7"/>
@@ -1789,12 +1731,8 @@
       <c r="G12" s="8">
         <v>0</v>
       </c>
-      <c r="H12" s="8">
-        <v>0</v>
-      </c>
-      <c r="I12" s="8">
-        <v>0</v>
-      </c>
+      <c r="H12" s="8"/>
+      <c r="I12" s="8"/>
     </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A13" s="7"/>
@@ -1816,12 +1754,8 @@
       <c r="G13" s="8">
         <v>0</v>
       </c>
-      <c r="H13" s="8">
-        <v>0</v>
-      </c>
-      <c r="I13" s="8">
-        <v>0</v>
-      </c>
+      <c r="H13" s="8"/>
+      <c r="I13" s="8"/>
     </row>
     <row r="14" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A14" s="7"/>
@@ -1843,12 +1777,8 @@
       <c r="G14" s="8">
         <v>0</v>
       </c>
-      <c r="H14" s="8">
-        <v>0</v>
-      </c>
-      <c r="I14" s="8">
-        <v>0</v>
-      </c>
+      <c r="H14" s="8"/>
+      <c r="I14" s="8"/>
     </row>
     <row r="15" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A15" s="7"/>
@@ -1870,12 +1800,8 @@
       <c r="G15" s="8">
         <v>0</v>
       </c>
-      <c r="H15" s="8">
-        <v>0</v>
-      </c>
-      <c r="I15" s="8">
-        <v>0</v>
-      </c>
+      <c r="H15" s="8"/>
+      <c r="I15" s="8"/>
     </row>
     <row r="16" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A16" s="7"/>
@@ -1897,12 +1823,8 @@
       <c r="G16" s="8">
         <v>0</v>
       </c>
-      <c r="H16" s="8">
-        <v>0</v>
-      </c>
-      <c r="I16" s="8">
-        <v>0</v>
-      </c>
+      <c r="H16" s="8"/>
+      <c r="I16" s="8"/>
     </row>
     <row r="17" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A17" s="7"/>
@@ -1924,12 +1846,8 @@
       <c r="G17" s="8">
         <v>0</v>
       </c>
-      <c r="H17" s="8">
-        <v>0</v>
-      </c>
-      <c r="I17" s="8">
-        <v>0</v>
-      </c>
+      <c r="H17" s="8"/>
+      <c r="I17" s="8"/>
     </row>
     <row r="18" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A18" s="7"/>
@@ -1951,12 +1869,8 @@
       <c r="G18" s="8">
         <v>0</v>
       </c>
-      <c r="H18" s="8">
-        <v>0</v>
-      </c>
-      <c r="I18" s="8">
-        <v>0</v>
-      </c>
+      <c r="H18" s="8"/>
+      <c r="I18" s="8"/>
     </row>
     <row r="19" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A19" s="7"/>
@@ -1978,12 +1892,8 @@
       <c r="G19" s="8">
         <v>0</v>
       </c>
-      <c r="H19" s="8">
-        <v>0</v>
-      </c>
-      <c r="I19" s="8">
-        <v>0</v>
-      </c>
+      <c r="H19" s="8"/>
+      <c r="I19" s="8"/>
     </row>
     <row r="20" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A20" s="7"/>
@@ -2005,12 +1915,8 @@
       <c r="G20" s="8">
         <v>0</v>
       </c>
-      <c r="H20" s="8">
-        <v>0</v>
-      </c>
-      <c r="I20" s="8">
-        <v>0</v>
-      </c>
+      <c r="H20" s="8"/>
+      <c r="I20" s="8"/>
     </row>
     <row r="21" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A21" s="7"/>
@@ -2032,12 +1938,8 @@
       <c r="G21" s="8">
         <v>0</v>
       </c>
-      <c r="H21" s="8">
-        <v>0</v>
-      </c>
-      <c r="I21" s="8">
-        <v>0</v>
-      </c>
+      <c r="H21" s="8"/>
+      <c r="I21" s="8"/>
     </row>
     <row r="22" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A22" s="7"/>
@@ -2059,12 +1961,8 @@
       <c r="G22" s="8">
         <v>0</v>
       </c>
-      <c r="H22" s="8">
-        <v>0</v>
-      </c>
-      <c r="I22" s="8">
-        <v>0</v>
-      </c>
+      <c r="H22" s="8"/>
+      <c r="I22" s="8"/>
     </row>
     <row r="23" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A23" s="7"/>
@@ -2086,12 +1984,8 @@
       <c r="G23" s="8">
         <v>0</v>
       </c>
-      <c r="H23" s="8">
-        <v>0</v>
-      </c>
-      <c r="I23" s="8">
-        <v>0</v>
-      </c>
+      <c r="H23" s="8"/>
+      <c r="I23" s="8"/>
     </row>
     <row r="24" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A24" s="7"/>
@@ -2113,12 +2007,8 @@
       <c r="G24" s="8">
         <v>0</v>
       </c>
-      <c r="H24" s="8">
-        <v>0</v>
-      </c>
-      <c r="I24" s="8">
-        <v>0</v>
-      </c>
+      <c r="H24" s="8"/>
+      <c r="I24" s="8"/>
     </row>
     <row r="25" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A25" s="7"/>
@@ -2140,12 +2030,8 @@
       <c r="G25" s="8">
         <v>0</v>
       </c>
-      <c r="H25" s="8">
-        <v>0</v>
-      </c>
-      <c r="I25" s="8">
-        <v>0</v>
-      </c>
+      <c r="H25" s="8"/>
+      <c r="I25" s="8"/>
     </row>
     <row r="26" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A26" s="7"/>
@@ -2167,12 +2053,8 @@
       <c r="G26" s="8">
         <v>0</v>
       </c>
-      <c r="H26" s="8">
-        <v>0</v>
-      </c>
-      <c r="I26" s="8">
-        <v>0</v>
-      </c>
+      <c r="H26" s="8"/>
+      <c r="I26" s="8"/>
     </row>
     <row r="27" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A27" s="7"/>
@@ -2194,12 +2076,8 @@
       <c r="G27" s="8">
         <v>0</v>
       </c>
-      <c r="H27" s="8">
-        <v>0</v>
-      </c>
-      <c r="I27" s="8">
-        <v>0</v>
-      </c>
+      <c r="H27" s="8"/>
+      <c r="I27" s="8"/>
     </row>
     <row r="28" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A28" s="7"/>
@@ -2221,12 +2099,8 @@
       <c r="G28" s="8">
         <v>0</v>
       </c>
-      <c r="H28" s="8">
-        <v>0</v>
-      </c>
-      <c r="I28" s="8">
-        <v>0</v>
-      </c>
+      <c r="H28" s="8"/>
+      <c r="I28" s="8"/>
     </row>
     <row r="29" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A29" s="7"/>
@@ -2248,12 +2122,8 @@
       <c r="G29" s="8">
         <v>0</v>
       </c>
-      <c r="H29" s="8">
-        <v>0</v>
-      </c>
-      <c r="I29" s="8">
-        <v>0</v>
-      </c>
+      <c r="H29" s="8"/>
+      <c r="I29" s="8"/>
     </row>
     <row r="30" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A30" s="7"/>
@@ -2275,12 +2145,8 @@
       <c r="G30" s="8">
         <v>0</v>
       </c>
-      <c r="H30" s="8">
-        <v>0</v>
-      </c>
-      <c r="I30" s="8">
-        <v>0</v>
-      </c>
+      <c r="H30" s="8"/>
+      <c r="I30" s="8"/>
     </row>
     <row r="31" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A31" s="7"/>
@@ -2302,12 +2168,8 @@
       <c r="G31" s="8">
         <v>0</v>
       </c>
-      <c r="H31" s="8">
-        <v>0</v>
-      </c>
-      <c r="I31" s="8">
-        <v>0</v>
-      </c>
+      <c r="H31" s="8"/>
+      <c r="I31" s="8"/>
     </row>
     <row r="32" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A32" s="7"/>
@@ -2329,12 +2191,8 @@
       <c r="G32" s="8">
         <v>0</v>
       </c>
-      <c r="H32" s="8">
-        <v>0</v>
-      </c>
-      <c r="I32" s="8">
-        <v>0</v>
-      </c>
+      <c r="H32" s="8"/>
+      <c r="I32" s="8"/>
     </row>
     <row r="33" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A33" s="7"/>
@@ -2356,12 +2214,8 @@
       <c r="G33" s="8">
         <v>0</v>
       </c>
-      <c r="H33" s="8">
-        <v>0</v>
-      </c>
-      <c r="I33" s="8">
-        <v>0</v>
-      </c>
+      <c r="H33" s="8"/>
+      <c r="I33" s="8"/>
     </row>
     <row r="34" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A34" s="7"/>
@@ -2383,12 +2237,8 @@
       <c r="G34" s="8">
         <v>0</v>
       </c>
-      <c r="H34" s="8">
-        <v>0</v>
-      </c>
-      <c r="I34" s="8">
-        <v>0</v>
-      </c>
+      <c r="H34" s="8"/>
+      <c r="I34" s="8"/>
     </row>
     <row r="35" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A35" s="7"/>
@@ -2410,12 +2260,8 @@
       <c r="G35" s="8">
         <v>0</v>
       </c>
-      <c r="H35" s="8">
-        <v>0</v>
-      </c>
-      <c r="I35" s="8">
-        <v>0</v>
-      </c>
+      <c r="H35" s="8"/>
+      <c r="I35" s="8"/>
     </row>
     <row r="36" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A36" s="7"/>
@@ -2437,12 +2283,8 @@
       <c r="G36" s="8">
         <v>0</v>
       </c>
-      <c r="H36" s="8">
-        <v>0</v>
-      </c>
-      <c r="I36" s="8">
-        <v>0</v>
-      </c>
+      <c r="H36" s="8"/>
+      <c r="I36" s="8"/>
     </row>
     <row r="37" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A37" s="7"/>
@@ -2464,12 +2306,8 @@
       <c r="G37" s="8">
         <v>0</v>
       </c>
-      <c r="H37" s="8">
-        <v>0</v>
-      </c>
-      <c r="I37" s="8">
-        <v>0</v>
-      </c>
+      <c r="H37" s="8"/>
+      <c r="I37" s="8"/>
     </row>
     <row r="38" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A38" s="7"/>
@@ -2491,12 +2329,8 @@
       <c r="G38" s="8">
         <v>0</v>
       </c>
-      <c r="H38" s="8">
-        <v>0</v>
-      </c>
-      <c r="I38" s="8">
-        <v>0</v>
-      </c>
+      <c r="H38" s="8"/>
+      <c r="I38" s="8"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
